--- a/medicine/Psychotrope/Victoria_Bitter/Victoria_Bitter.xlsx
+++ b/medicine/Psychotrope/Victoria_Bitter/Victoria_Bitter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Victoria Bitter ou VB est une bière australienne brassée par Carlton &amp; United Beverages appartenant au groupe Foster's.
 Même si la Foster's est la bière australienne la plus connue à l'étranger, sa part de marché en Australie reste faible comparé à la Victoria Bitter qui est la bière la plus vendue, à la fois en pression ou en détail.
@@ -513,7 +525,9 @@
           <t>Victoria Bitter et Tooheys</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jusqu'en 2014, un accord tacite entre Carlton &amp; United Beverages et Lion Nathan (brasseur de la Tooheys) les empêchait de pénêtrer les "chasses gardées" du concurrent, respectivement l'État du Victoria et de la Nouvelle-Galles du Sud. Cet accord prit fin avec ce qui est appelé la "guerre de la bière de Melbourne" (Melbourne Beer War) une guerre commerciale agressive pour le contrôle.
 </t>
